--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>FC Osaka</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Nagano Parceiro</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Blackburn U21</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Derby U21</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>2.04</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Blackburn U21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Derby U21</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>3.55</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1588,135 +1588,270 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2025-11-10</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Club Atletico Tembetary</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Nacional (Par)</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>1.01</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
         <v>1.02</v>
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" t="n">
         <v>1.64</v>
@@ -1240,7 +1240,7 @@
         <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1615,7 +1615,7 @@
         <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -670,16 +670,16 @@
         <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.46</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -718,7 +718,7 @@
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.04</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,16 +691,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>ASA Targu Mures</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Blackburn U21</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Derby U21</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>1.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,48 +1058,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Blackburn U21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Derby U21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
         <v>1.24</v>
@@ -1108,82 +1108,82 @@
         <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,37 +1463,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>3.55</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>2.44</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,135 +1723,405 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-11-10</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Club Atletico Tembetary</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Nacional (Par)</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
         <v>1.32</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="O3" t="n">
         <v>1.02</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.39</v>
@@ -970,7 +970,7 @@
         <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
         <v>1.36</v>
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1360,16 +1360,16 @@
         <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.73</v>
@@ -1378,76 +1378,76 @@
         <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W7" t="n">
         <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1495,16 +1495,16 @@
         <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P8" t="n">
         <v>1.42</v>
@@ -1513,76 +1513,76 @@
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1624,100 +1624,100 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1885,10 +1885,10 @@
         <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>4.7</v>
@@ -1900,16 +1900,16 @@
         <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
         <v>1.7</v>
@@ -1918,76 +1918,76 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
         <v>1.24</v>
@@ -2053,76 +2053,76 @@
         <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -838,7 +838,7 @@
         <v>1.39</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
         <v>1.39</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
         <v>1.88</v>
@@ -946,103 +946,103 @@
         <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="G5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.18</v>
@@ -1099,85 +1099,85 @@
         <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
         <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>75</v>
@@ -1348,10 +1348,10 @@
         <v>2.86</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
@@ -1366,7 +1366,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
         <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1504,10 +1504,10 @@
         <v>2.26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1753,7 +1753,7 @@
         <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1765,34 +1765,34 @@
         <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>1.55</v>
+        <v>2.64</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.51</v>
       </c>
       <c r="P10" t="n">
         <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
         <v>1.3</v>
@@ -1801,40 +1801,40 @@
         <v>1.71</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1843,16 +1843,16 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1921,7 +1921,7 @@
         <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.93</v>
@@ -1936,7 +1936,7 @@
         <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
         <v>13.5</v>
@@ -2123,6 +2123,411 @@
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X13" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X14" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>1.32</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H4" t="n">
         <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -961,31 +961,31 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
         <v>2.14</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1120,7 +1120,7 @@
         <v>2.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK6" t="n">
         <v>27</v>
       </c>
-      <c r="AK6" t="n">
-        <v>25</v>
-      </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G7" t="n">
         <v>2.86</v>
       </c>
       <c r="H7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
         <v>3.15</v>
@@ -1357,25 +1357,25 @@
         <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1384,7 +1384,7 @@
         <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
@@ -1429,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G8" t="n">
         <v>3.95</v>
@@ -1486,10 +1486,10 @@
         <v>2.42</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1501,13 +1501,13 @@
         <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1525,7 +1525,7 @@
         <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>1.35</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>110</v>
@@ -1753,7 +1753,7 @@
         <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1765,7 +1765,7 @@
         <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1774,7 +1774,7 @@
         <v>2.64</v>
       </c>
       <c r="O10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
         <v>1.55</v>
@@ -1891,13 +1891,13 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.42</v>
@@ -1930,7 +1930,7 @@
         <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
         <v>1.83</v>
@@ -2155,7 +2155,7 @@
         <v>1.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H13" t="n">
         <v>5.8</v>
@@ -2200,7 +2200,7 @@
         <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W13" t="n">
         <v>2.46</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2299,19 +2299,19 @@
         <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M14" t="n">
         <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O14" t="n">
         <v>1.58</v>
@@ -2422,34 +2422,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
         <v>1.79</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
         <v>7.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P15" t="n">
         <v>1.61</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -766,10 +766,10 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
         <v>85</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
         <v>1.86</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -967,10 +967,10 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
@@ -979,16 +979,16 @@
         <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
@@ -1012,7 +1012,7 @@
         <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1126,58 +1126,58 @@
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.42</v>
@@ -1234,43 +1234,43 @@
         <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
         <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
         <v>9.4</v>
@@ -1279,13 +1279,13 @@
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1294,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>46</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
@@ -1390,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1408,22 +1408,22 @@
         <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
@@ -1432,10 +1432,10 @@
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>50</v>
@@ -1444,10 +1444,10 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1501,13 +1501,13 @@
         <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.68</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1522,10 +1522,10 @@
         <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
         <v>1.35</v>
@@ -1576,7 +1576,7 @@
         <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN8" t="n">
         <v>150</v>
@@ -1618,13 +1618,13 @@
         <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1639,13 +1639,13 @@
         <v>1.89</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
         <v>1.11</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1942,7 +1942,7 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1972,13 +1972,13 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK11" t="n">
         <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>170</v>
@@ -2200,16 +2200,16 @@
         <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
         <v>2.46</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
         <v>75</v>
@@ -2218,37 +2218,37 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
         <v>140</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
         <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>2.9</v>
@@ -2335,16 +2335,16 @@
         <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -679,7 +679,7 @@
         <v>5.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -697,7 +697,7 @@
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="R3" t="n">
         <v>1.16</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
         <v>4.6</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -976,25 +976,25 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>50</v>
@@ -1009,7 +1009,7 @@
         <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
@@ -1018,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I5" t="n">
         <v>3.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1105,10 +1105,10 @@
         <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.9</v>
@@ -1117,7 +1117,7 @@
         <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1126,19 +1126,19 @@
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
         <v>970</v>
@@ -1147,10 +1147,10 @@
         <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>2.54</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
@@ -1237,13 +1237,13 @@
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
         <v>3.1</v>
@@ -1261,7 +1261,7 @@
         <v>1.65</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1276,7 +1276,7 @@
         <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>16</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
@@ -1345,16 +1345,16 @@
         <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
@@ -1390,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1444,7 +1444,7 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
         <v>46</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
         <v>1.68</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O8" t="n">
         <v>1.68</v>
       </c>
       <c r="P8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
         <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
         <v>7.2</v>
@@ -1537,40 +1537,40 @@
         <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
         <v>100</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>140</v>
@@ -1582,13 +1582,13 @@
         <v>150</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>C.S. Ameliano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>1.11</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.89</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.2</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="L10" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.11</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.04</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.93</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>65</v>
       </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.69</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>1.97</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,96 +2273,96 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>1.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.9</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="T14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.46</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.55</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="n">
         <v>980</v>
@@ -2374,25 +2374,25 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,120 +2413,255 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.84</v>
+        <v>2.46</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>2.26</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
       </c>
       <c r="AO15" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO16" t="n">
         <v>290</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.84</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>75</v>
@@ -748,31 +748,31 @@
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
         <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.29</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -976,19 +976,19 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
         <v>22</v>
@@ -1024,7 +1024,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
@@ -1075,16 +1075,16 @@
         <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,19 +1096,19 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
         <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
         <v>1.9</v>
@@ -1126,10 +1126,10 @@
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>36</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.42</v>
@@ -1231,19 +1231,19 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
         <v>3.1</v>
@@ -1252,67 +1252,67 @@
         <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG6" t="n">
         <v>13</v>
       </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN6" t="n">
         <v>30</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AO6" t="n">
         <v>46</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1489,10 +1489,10 @@
         <v>2.54</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.68</v>
@@ -1501,7 +1501,7 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O8" t="n">
         <v>1.68</v>
@@ -1516,7 +1516,7 @@
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
         <v>2.34</v>
@@ -1537,7 +1537,7 @@
         <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
         <v>75</v>
@@ -1552,7 +1552,7 @@
         <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
         <v>32</v>
@@ -1615,28 +1615,28 @@
         <v>2.54</v>
       </c>
       <c r="G9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1651,19 +1651,19 @@
         <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1699,7 +1699,7 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>55</v>
@@ -1717,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
         <v>1.09</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.96</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1774,13 +1774,13 @@
         <v>1.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>1.11</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.31</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
         <v>3.85</v>
@@ -1894,10 +1894,10 @@
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.56</v>
@@ -1906,16 +1906,16 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -1924,16 +1924,16 @@
         <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -1948,10 +1948,10 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -2029,13 +2029,13 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2044,19 +2044,19 @@
         <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
         <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.93</v>
@@ -2164,16 +2164,16 @@
         <v>1.97</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>3.3</v>
@@ -2194,10 +2194,10 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
         <v>2.02</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2311,19 +2311,19 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
         <v>2.9</v>
@@ -2338,37 +2338,37 @@
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
         <v>980</v>
       </c>
-      <c r="Y14" t="n">
-        <v>28</v>
-      </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="n">
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>980</v>
@@ -2383,13 +2383,13 @@
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
         <v>2.8</v>
@@ -2431,7 +2431,7 @@
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
         <v>2.96</v>
@@ -2440,16 +2440,16 @@
         <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P15" t="n">
         <v>1.49</v>
@@ -2467,7 +2467,7 @@
         <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
         <v>1.4</v>
@@ -2512,7 +2512,7 @@
         <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>42</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H16" t="n">
         <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
@@ -2608,7 +2608,7 @@
         <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X16" t="n">
         <v>10.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -691,19 +691,19 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.45</v>
@@ -712,19 +712,19 @@
         <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
@@ -745,25 +745,25 @@
         <v>75</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
         <v>150</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
@@ -850,16 +850,16 @@
         <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>28</v>
@@ -868,37 +868,37 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
         <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -970,22 +970,22 @@
         <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
         <v>2.2</v>
@@ -994,28 +994,28 @@
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -1078,16 +1078,16 @@
         <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="I5" t="n">
         <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.18</v>
@@ -1096,7 +1096,7 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.12</v>
@@ -1111,7 +1111,7 @@
         <v>1.84</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="T5" t="n">
         <v>1.4</v>
@@ -1126,58 +1126,58 @@
         <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AN5" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.55</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ6" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,43 +1342,43 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
         <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>4.4</v>
@@ -1387,46 +1387,46 @@
         <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
         <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>1.68</v>
@@ -1504,28 +1504,28 @@
         <v>2.38</v>
       </c>
       <c r="O8" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W8" t="n">
         <v>1.33</v>
@@ -1537,25 +1537,25 @@
         <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1564,25 +1564,25 @@
         <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN8" t="n">
         <v>150</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H9" t="n">
         <v>2.92</v>
@@ -1624,49 +1624,49 @@
         <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1675,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
@@ -1693,25 +1693,25 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AJ9" t="n">
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>44</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.23</v>
+        <v>2.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>2.58</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>2.74</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,88 +1771,88 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.85</v>
@@ -1894,34 +1894,34 @@
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -1933,16 +1933,16 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1954,40 +1954,40 @@
         <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AM11" t="n">
         <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -2029,10 +2029,10 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
@@ -2065,7 +2065,7 @@
         <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
         <v>1.84</v>
@@ -2077,13 +2077,13 @@
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
         <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2104,25 +2104,25 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
@@ -2158,16 +2158,16 @@
         <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.42</v>
@@ -2182,7 +2182,7 @@
         <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
         <v>1.9</v>
@@ -2194,40 +2194,40 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W13" t="n">
         <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2251,13 +2251,13 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -2356,16 +2356,16 @@
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
         <v>150</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
         <v>1.62</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
         <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U15" t="n">
         <v>1.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>720</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
         <v>1.76</v>
@@ -2566,7 +2566,7 @@
         <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK2" t="n">
         <v>20</v>
       </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
       <c r="AL2" t="n">
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>3.7</v>
@@ -865,13 +865,13 @@
         <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>17</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
         <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -985,19 +985,19 @@
         <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>140</v>
@@ -1006,13 +1006,13 @@
         <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
@@ -1021,10 +1021,10 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>19.5</v>
@@ -1042,7 +1042,7 @@
         <v>10.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1102,7 +1102,7 @@
         <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
         <v>1.37</v>
@@ -1111,7 +1111,7 @@
         <v>1.84</v>
       </c>
       <c r="S5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T5" t="n">
         <v>1.4</v>
@@ -1120,10 +1120,10 @@
         <v>2.68</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1141,7 +1141,7 @@
         <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>980</v>
@@ -1153,16 +1153,16 @@
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.18</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>3.55</v>
@@ -1243,22 +1243,22 @@
         <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1267,10 +1267,10 @@
         <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
         <v>9.199999999999999</v>
@@ -1285,7 +1285,7 @@
         <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
@@ -1294,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
         <v>30</v>
@@ -1303,13 +1303,13 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM6" t="n">
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1381,31 +1381,31 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
         <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
         <v>10</v>
@@ -1414,22 +1414,22 @@
         <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
         <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
         <v>42</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J8" t="n">
         <v>2.9</v>
@@ -1498,7 +1498,7 @@
         <v>1.68</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
         <v>2.38</v>
@@ -1519,61 +1519,61 @@
         <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.68</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.66</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>230</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG8" t="n">
         <v>25</v>
       </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
         <v>480</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="AM8" t="n">
         <v>310</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
@@ -1630,55 +1630,55 @@
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>8.800000000000001</v>
@@ -1690,34 +1690,34 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
         <v>380</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1747,70 +1747,70 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.74</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="P10" t="n">
         <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.55</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
         <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>8.4</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="U10" t="n">
         <v>1.03</v>
       </c>
       <c r="V10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.37</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
         <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
         <v>9.6</v>
@@ -1822,19 +1822,19 @@
         <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>46</v>
       </c>
       <c r="AI10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
         <v>100</v>
@@ -1846,13 +1846,13 @@
         <v>200</v>
       </c>
       <c r="AM10" t="n">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="AN10" t="n">
         <v>190</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -1882,43 +1882,43 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
         <v>2.32</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q11" t="n">
         <v>2.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
         <v>5.1</v>
@@ -1927,16 +1927,16 @@
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
         <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1945,13 +1945,13 @@
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AB11" t="n">
         <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1963,7 +1963,7 @@
         <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -1981,7 +1981,7 @@
         <v>400</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
         <v>3.05</v>
@@ -2047,82 +2047,82 @@
         <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
         <v>100</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>120</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
         <v>1.93</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.42</v>
@@ -2185,49 +2185,49 @@
         <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
         <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
         <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>3.9</v>
@@ -2317,13 +2317,13 @@
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>2.9</v>
@@ -2335,13 +2335,13 @@
         <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>980</v>
@@ -2353,16 +2353,16 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="n">
         <v>11</v>
@@ -2371,13 +2371,13 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
@@ -2386,13 +2386,13 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>2.68</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>3.3</v>
@@ -2437,10 +2437,10 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
@@ -2461,10 +2461,10 @@
         <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U15" t="n">
         <v>1.74</v>
@@ -2473,31 +2473,31 @@
         <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
         <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
         <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
@@ -2509,25 +2509,25 @@
         <v>44</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>120</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN15" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -2584,22 +2584,22 @@
         <v>2.84</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="U16" t="n">
         <v>1.68</v>
@@ -2608,61 +2608,61 @@
         <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AA16" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AB16" t="n">
         <v>6.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11</v>
       </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>200</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>970</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>42</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.33</v>
       </c>
-      <c r="S2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18.5</v>
+        <v>4.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.98</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
         <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AA3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>260</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>980</v>
@@ -1003,10 +1003,10 @@
         <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>21</v>
@@ -1015,10 +1015,10 @@
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
@@ -1027,10 +1027,10 @@
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL4" t="n">
         <v>75</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1171,13 +1171,13 @@
         <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>980</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
         <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
         <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
         <v>60</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1360,22 +1360,22 @@
         <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
         <v>1.26</v>
@@ -1384,19 +1384,19 @@
         <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1408,13 +1408,13 @@
         <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
         <v>42</v>
@@ -1423,10 +1423,10 @@
         <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
@@ -1435,7 +1435,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1486,46 +1486,46 @@
         <v>2.34</v>
       </c>
       <c r="I8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.46</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
         <v>1.31</v>
@@ -1534,55 +1534,55 @@
         <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH8" t="n">
         <v>46</v>
       </c>
-      <c r="AG8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>65</v>
-      </c>
       <c r="AI8" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>270</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
         <v>360</v>
       </c>
       <c r="AM8" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
         <v>2.62</v>
@@ -1621,58 +1621,58 @@
         <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
         <v>1.61</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>380</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1714,7 +1714,7 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
         <v>90</v>
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K10" t="n">
         <v>2.74</v>
       </c>
       <c r="L10" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="N10" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T10" t="n">
         <v>2.52</v>
@@ -1795,61 +1795,61 @@
         <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
         <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL10" t="n">
         <v>170</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>200</v>
-      </c>
       <c r="AM10" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="AN10" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
         <v>360</v>
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1951,7 +1951,7 @@
         <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>980</v>
@@ -1981,7 +1981,7 @@
         <v>400</v>
       </c>
       <c r="AM11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
         <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
         <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
@@ -2104,10 +2104,10 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2116,13 +2116,13 @@
         <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="I13" t="n">
         <v>1.93</v>
@@ -2167,43 +2167,43 @@
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>28</v>
@@ -2287,73 +2287,73 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
         <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
         <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
         <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>12.5</v>
@@ -2371,13 +2371,13 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
@@ -2440,22 +2440,22 @@
         <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P15" t="n">
         <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
         <v>1.17</v>
@@ -2464,7 +2464,7 @@
         <v>6.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U15" t="n">
         <v>1.74</v>
@@ -2476,7 +2476,7 @@
         <v>1.56</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y15" t="n">
         <v>9.6</v>
@@ -2485,46 +2485,46 @@
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
         <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
@@ -2560,10 +2560,10 @@
         <v>1.69</v>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I16" t="n">
         <v>7</v>
@@ -2572,25 +2572,25 @@
         <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
         <v>1.49</v>
       </c>
       <c r="P16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
@@ -2602,7 +2602,7 @@
         <v>2.32</v>
       </c>
       <c r="U16" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V16" t="n">
         <v>1.17</v>
@@ -2611,13 +2611,13 @@
         <v>2.34</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="n">
         <v>280</v>
@@ -2626,10 +2626,10 @@
         <v>6.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
@@ -2641,13 +2641,13 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="n">
         <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>32</v>
@@ -2659,7 +2659,7 @@
         <v>270</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,91 +653,91 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Osaka</t>
+          <t>CSD San Antonio Unido</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nagano Parceiro</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>970</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
         <v>42</v>
       </c>
-      <c r="K2" t="n">
-        <v>55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>34</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD2" t="n">
         <v>1000</v>
       </c>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>14</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
       <c r="Z3" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.69</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.23</v>
@@ -1105,7 +1105,7 @@
         <v>3.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
         <v>1.91</v>
@@ -1114,61 +1114,61 @@
         <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA5" t="n">
         <v>290</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="n">
         <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
         <v>140</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1177,7 +1177,7 @@
         <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,61 +1231,61 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1297,22 +1297,22 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM6" t="n">
         <v>120</v>
       </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1360,19 +1360,19 @@
         <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
         <v>2.34</v>
@@ -1381,25 +1381,25 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
@@ -1408,31 +1408,31 @@
         <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
         <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
         <v>36</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G8" t="n">
         <v>4.2</v>
@@ -1486,10 +1486,10 @@
         <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>3.05</v>
@@ -1501,34 +1501,34 @@
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
         <v>2.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
         <v>7.4</v>
@@ -1543,7 +1543,7 @@
         <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
@@ -1552,28 +1552,28 @@
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
         <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
         <v>270</v>
@@ -1582,7 +1582,7 @@
         <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
         <v>1.51</v>
@@ -1654,16 +1654,16 @@
         <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
         <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1705,7 +1705,7 @@
         <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
         <v>300</v>
@@ -1714,10 +1714,10 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1750,22 +1750,22 @@
         <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K10" t="n">
         <v>2.74</v>
       </c>
       <c r="L10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="M10" t="n">
         <v>1.21</v>
@@ -1774,10 +1774,10 @@
         <v>2.12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q10" t="n">
         <v>3.7</v>
@@ -1795,61 +1795,61 @@
         <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>46</v>
+        <v>7.2</v>
       </c>
       <c r="Y10" t="n">
         <v>7.2</v>
       </c>
       <c r="Z10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA10" t="n">
         <v>55</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>60</v>
       </c>
       <c r="AB10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD10" t="n">
         <v>42</v>
       </c>
-      <c r="AD10" t="n">
-        <v>17</v>
-      </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="AN10" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="n">
         <v>360</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
         <v>1.12</v>
@@ -1909,40 +1909,40 @@
         <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA11" t="n">
         <v>290</v>
@@ -1951,10 +1951,10 @@
         <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>470</v>
@@ -1963,10 +1963,10 @@
         <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AI11" t="n">
         <v>400</v>
@@ -1975,19 +1975,19 @@
         <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>400</v>
       </c>
       <c r="AM11" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
         <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
         <v>1.89</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2080,19 +2080,19 @@
         <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2116,13 +2116,13 @@
         <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="I13" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="X13" t="n">
         <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>40</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I14" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M15" t="n">
         <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q15" t="n">
         <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S15" t="n">
         <v>6.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U15" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
@@ -2491,37 +2491,37 @@
         <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
         <v>80</v>
       </c>
       <c r="AM15" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN15" t="n">
         <v>55</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G16" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H16" t="n">
         <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2581,88 +2581,88 @@
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
         <v>1.49</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
         <v>2.32</v>
       </c>
       <c r="U16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
         <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CSD San Antonio Unido</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Concon National FC</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44</v>
+        <v>660</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>1.06</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>660</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>750</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.29</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.26</v>
+        <v>5.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASA Targu Mures</t>
+          <t>CSD San Antonio Unido</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="H3" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.95</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>2.54</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>ASA Targu Mures</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.35</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.05</v>
       </c>
-      <c r="N4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.76</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>2.44</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
         <v>75</v>
       </c>
-      <c r="AF4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Blackburn U21</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Derby U21</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>2.92</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.2</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="n">
         <v>65</v>
       </c>
-      <c r="Z5" t="n">
-        <v>960</v>
-      </c>
       <c r="AA5" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>960</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Blackburn U21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Derby U21</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>2.86</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>960</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF6" t="n">
         <v>60</v>
       </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>960</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,87 +1463,87 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.95</v>
+        <v>2.82</v>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="I8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.98</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
@@ -1555,40 +1555,40 @@
         <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C.S. Ameliano</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>3.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.68</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.1</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.51</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.71</v>
-      </c>
       <c r="Q9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.28</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
         <v>17</v>
       </c>
-      <c r="AE9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN9" t="n">
         <v>110</v>
       </c>
-      <c r="AL9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>90</v>
-      </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>C.S. Ameliano</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>2.68</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.12</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.52</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="X10" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="n">
         <v>16</v>
       </c>
-      <c r="AA10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>130</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>80</v>
-      </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.62</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="S11" t="n">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="X11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>970</v>
-      </c>
       <c r="AE11" t="n">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="n">
         <v>70</v>
       </c>
-      <c r="AI11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
       <c r="AL11" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="AN11" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2008,118 +2008,118 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y12" t="n">
         <v>11</v>
       </c>
-      <c r="Y12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
         <v>95</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.6</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
-        <v>1.69</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>2.32</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.19</v>
+        <v>1.96</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.48</v>
+        <v>5.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>7.8</v>
+        <v>1.63</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>2.46</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>240</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.74</v>
+        <v>1.48</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.25</v>
       </c>
-      <c r="J15" t="n">
+      <c r="T15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.54</v>
-      </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
         <v>48</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>80</v>
       </c>
       <c r="AM15" t="n">
         <v>220</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,256 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.68</v>
+        <v>2.82</v>
       </c>
       <c r="G16" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC16" t="n">
         <v>7.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK16" t="n">
         <v>46</v>
       </c>
-      <c r="AE16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>23</v>
-      </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
         <v>240</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="AO16" t="n">
-        <v>250</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>ASA Targu Mures</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="G2" t="n">
-        <v>660</v>
+        <v>1.08</v>
       </c>
       <c r="H2" t="n">
-        <v>1.06</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>660</v>
+        <v>110</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="K2" t="n">
-        <v>750</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,40 +691,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.14</v>
+        <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>5.9</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>2.68</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,75 +788,75 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CSD San Antonio Unido</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Concon National FC</t>
+          <t>Middelfart</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>2.94</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.26</v>
+        <v>1.47</v>
       </c>
       <c r="T3" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -871,49 +871,49 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>9.4</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ASA Targu Mures</t>
+          <t>Blackburn U21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Derby U21</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>3.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM4" t="n">
         <v>60</v>
       </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AN4" t="n">
         <v>11</v>
       </c>
-      <c r="AH4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22</v>
-      </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Middelfart</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK5" t="n">
         <v>25</v>
       </c>
-      <c r="Z5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN5" t="n">
         <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Blackburn U21</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Derby U21</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.23</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.89</v>
-      </c>
       <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.02</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
         <v>65</v>
       </c>
-      <c r="Z6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>960</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>2.54</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>1.89</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>36</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>90</v>
       </c>
-      <c r="AB7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>25</v>
-      </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="n">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,30 +1463,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>C.S. Ameliano</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1495,94 +1495,94 @@
         <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN8" t="n">
         <v>55</v>
       </c>
-      <c r="AM8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>42</v>
-      </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="L9" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="P9" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.84</v>
+        <v>3.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8</v>
       </c>
-      <c r="Y9" t="n">
-        <v>7</v>
-      </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="AN9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO9" t="n">
         <v>110</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C.S. Ameliano</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="n">
         <v>32</v>
       </c>
-      <c r="AA10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AL10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN10" t="n">
         <v>55</v>
       </c>
-      <c r="AF10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>90</v>
-      </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.74</v>
-      </c>
       <c r="K11" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.6</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.41</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
         <v>19</v>
       </c>
-      <c r="AG11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>130</v>
-      </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.8</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.16</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
       <c r="AA12" t="n">
-        <v>290</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="G13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.04</v>
       </c>
-      <c r="H13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>2.92</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>32</v>
       </c>
-      <c r="AA13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.9</v>
+        <v>2.94</v>
       </c>
       <c r="G14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>42</v>
-      </c>
       <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF14" t="n">
         <v>17</v>
       </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,396 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="H15" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="V15" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN15" t="n">
         <v>15</v>
       </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO15" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM16" t="n">
         <v>240</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:15:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
